--- a/reg template.xlsx
+++ b/reg template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B64350FF-1E34-4732-A6E8-E2E369689A8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58BC4D6-4A29-4945-81F9-FF633152F609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="148">
   <si>
     <t>Offset(Hex)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,6 +374,233 @@
   </si>
   <si>
     <t>d2023</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d0</t>
+  </si>
+  <si>
+    <t>W1C</t>
+  </si>
+  <si>
+    <t>W1S</t>
+  </si>
+  <si>
+    <t>WP</t>
+  </si>
+  <si>
+    <t>Reg Out</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>ads_div_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter_coe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filter_freq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_time_ctrl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base_time_div_cnt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intr_enable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_watermark_intr_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext_trig_intr_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dma_xfer_cplt_intr_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_overflow_intr_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_underrun_intr_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_alloc_fifo_overflow_intr_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_alloc_fifo_underrun_intr_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_done_intr_en</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_watermark_intr_msk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext_trig_intr_msk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dma_xfer_cplt_intr_msk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_overflow_intr_msk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_underrun_intr_msk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_alloc_fifo_overflow_intr_msk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_alloc_fifo_underrun_intr_msk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_done_intr_msk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intr_mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_watermark_intr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ext_trig_intr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dma_xfer_cplt_intr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_overflow_intr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_free_fifo_underrun_intr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_alloc_fifo_overflow_intr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fbuf_alloc_fifo_underrun_intr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sample_done_intr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>intr_status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain_table_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain_table_data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gain_table_len</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x3c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x48</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x4c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x54</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x5c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x70</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0x6c</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -870,10 +1097,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -884,16 +1111,17 @@
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="43.625" customWidth="1"/>
+    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="10" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="B1" s="11"/>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -901,7 +1129,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
@@ -909,7 +1137,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>11</v>
       </c>
@@ -917,7 +1145,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -925,7 +1153,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -933,7 +1161,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>14</v>
       </c>
@@ -941,7 +1169,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>8</v>
       </c>
@@ -952,9 +1180,10 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I9" s="9"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>0</v>
       </c>
@@ -980,10 +1209,13 @@
         <v>6</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>28</v>
       </c>
@@ -1004,14 +1236,17 @@
         <v>32</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="H11" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>23</v>
       </c>
@@ -1028,7 +1263,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <f t="shared" ref="F12:F41" si="0">D12-E12 + 1</f>
+        <f t="shared" ref="F12:F43" si="0">D12-E12 + 1</f>
         <v>32</v>
       </c>
       <c r="G12" s="3" t="s">
@@ -1038,8 +1273,9 @@
         <v>84</v>
       </c>
       <c r="I12" s="3"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>29</v>
       </c>
@@ -1066,8 +1302,9 @@
         <v>84</v>
       </c>
       <c r="I13" s="3"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -1094,8 +1331,9 @@
         <v>84</v>
       </c>
       <c r="I14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="12" t="s">
         <v>39</v>
       </c>
@@ -1116,14 +1354,15 @@
         <v>1</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>84</v>
       </c>
       <c r="I15" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="3" t="s">
@@ -1146,8 +1385,9 @@
         <v>84</v>
       </c>
       <c r="I16" s="3"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="3" t="s">
@@ -1170,8 +1410,9 @@
         <v>84</v>
       </c>
       <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="12" t="s">
         <v>46</v>
       </c>
@@ -1192,14 +1433,15 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>86</v>
       </c>
       <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
       <c r="C19" s="3" t="s">
@@ -1222,8 +1464,9 @@
         <v>85</v>
       </c>
       <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="3" t="s">
@@ -1246,8 +1489,9 @@
         <v>84</v>
       </c>
       <c r="I20" s="3"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="14"/>
       <c r="B21" s="14"/>
       <c r="C21" s="3" t="s">
@@ -1270,8 +1514,9 @@
         <v>84</v>
       </c>
       <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="12" t="s">
         <v>50</v>
       </c>
@@ -1298,8 +1543,9 @@
         <v>88</v>
       </c>
       <c r="I22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="3" t="s">
@@ -1322,8 +1568,9 @@
         <v>88</v>
       </c>
       <c r="I23" s="3"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="14"/>
       <c r="B24" s="14"/>
       <c r="C24" s="3" t="s">
@@ -1346,8 +1593,9 @@
         <v>89</v>
       </c>
       <c r="I24" s="3"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="12" t="s">
         <v>57</v>
       </c>
@@ -1374,8 +1622,9 @@
         <v>84</v>
       </c>
       <c r="I25" s="3"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="3" t="s">
@@ -1398,8 +1647,9 @@
         <v>84</v>
       </c>
       <c r="I26" s="3"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="13"/>
       <c r="B27" s="13"/>
       <c r="C27" s="3" t="s">
@@ -1422,8 +1672,9 @@
         <v>84</v>
       </c>
       <c r="I27" s="3"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="14"/>
       <c r="B28" s="14"/>
       <c r="C28" s="3" t="s">
@@ -1446,8 +1697,9 @@
         <v>84</v>
       </c>
       <c r="I28" s="3"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="12" t="s">
         <v>61</v>
       </c>
@@ -1470,12 +1722,13 @@
       <c r="G29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
+      <c r="H29" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I29" s="3"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="14"/>
       <c r="B30" s="14"/>
       <c r="C30" s="3" t="s">
@@ -1494,12 +1747,13 @@
       <c r="G30" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H30" s="3">
-        <v>0</v>
+      <c r="H30" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="12" t="s">
         <v>67</v>
       </c>
@@ -1522,12 +1776,13 @@
       <c r="G31" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H31" s="3">
-        <v>0</v>
+      <c r="H31" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="13"/>
       <c r="B32" s="13"/>
       <c r="C32" s="3" t="s">
@@ -1546,12 +1801,13 @@
       <c r="G32" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
+      <c r="H32" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I32" s="3"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="14"/>
       <c r="B33" s="14"/>
       <c r="C33" s="3" t="s">
@@ -1570,12 +1826,13 @@
       <c r="G33" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
+      <c r="H33" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I33" s="3"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
         <v>73</v>
       </c>
@@ -1598,12 +1855,13 @@
       <c r="G34" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H34" s="3">
-        <v>0</v>
+      <c r="H34" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I34" s="3"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13"/>
       <c r="C35" s="3" t="s">
@@ -1622,12 +1880,13 @@
       <c r="G35" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
+      <c r="H35" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I35" s="3"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13"/>
       <c r="C36" s="3" t="s">
@@ -1646,12 +1905,13 @@
       <c r="G36" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H36" s="3">
-        <v>0</v>
+      <c r="H36" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="14"/>
       <c r="B37" s="14"/>
       <c r="C37" s="3" t="s">
@@ -1670,12 +1930,13 @@
       <c r="G37" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H37" s="3">
-        <v>0</v>
+      <c r="H37" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I37" s="3"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>75</v>
       </c>
@@ -1698,12 +1959,13 @@
       <c r="G38" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H38" s="3">
-        <v>0</v>
+      <c r="H38" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I38" s="3"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>77</v>
       </c>
@@ -1726,12 +1988,13 @@
       <c r="G39" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H39" s="3">
-        <v>0</v>
+      <c r="H39" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I39" s="3"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>79</v>
       </c>
@@ -1754,12 +2017,13 @@
       <c r="G40" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H40" s="3">
-        <v>0</v>
+      <c r="H40" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I40" s="3"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>80</v>
       </c>
@@ -1782,62 +2046,1021 @@
       <c r="G41" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
+      <c r="H41" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3">
-        <v>0</v>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="3">
+        <v>31</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I42" s="3"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3">
-        <v>0</v>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="3">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+      <c r="F43" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="I43" s="3"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="3">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+      <c r="F44" s="3">
+        <f t="shared" ref="F44" si="1">D44-E44 + 1</f>
+        <v>32</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="I44" s="3"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" s="3">
+        <v>31</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <f t="shared" ref="F45:F75" si="2">D45-E45 + 1</f>
+        <v>32</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+      <c r="F46" s="3">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D48" s="3">
+        <v>31</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D49" s="3">
+        <v>7</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7</v>
+      </c>
+      <c r="F49" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="13"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D50" s="3">
+        <v>6</v>
+      </c>
+      <c r="E50" s="3">
+        <v>6</v>
+      </c>
+      <c r="F50" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="3">
+        <v>5</v>
+      </c>
+      <c r="E51" s="3">
+        <v>5</v>
+      </c>
+      <c r="F51" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="13"/>
+      <c r="B52" s="13"/>
+      <c r="C52" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" s="3">
+        <v>4</v>
+      </c>
+      <c r="E52" s="3">
+        <v>4</v>
+      </c>
+      <c r="F52" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D53" s="3">
+        <v>3</v>
+      </c>
+      <c r="E53" s="3">
+        <v>3</v>
+      </c>
+      <c r="F53" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2</v>
+      </c>
+      <c r="F54" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" s="3"/>
+      <c r="J54" s="3"/>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D55" s="3">
+        <v>1</v>
+      </c>
+      <c r="E55" s="3">
+        <v>1</v>
+      </c>
+      <c r="F55" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H55" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="3"/>
+      <c r="J55" s="3"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D56" s="3">
+        <v>0</v>
+      </c>
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+      <c r="F56" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D57" s="3">
+        <v>7</v>
+      </c>
+      <c r="E57" s="3">
+        <v>7</v>
+      </c>
+      <c r="F57" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="3">
+        <v>6</v>
+      </c>
+      <c r="E58" s="3">
+        <v>6</v>
+      </c>
+      <c r="F58" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="3">
+        <v>5</v>
+      </c>
+      <c r="E59" s="3">
+        <v>5</v>
+      </c>
+      <c r="F59" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="3">
+        <v>4</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4</v>
+      </c>
+      <c r="F60" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" s="3"/>
+      <c r="J60" s="3"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D61" s="3">
+        <v>3</v>
+      </c>
+      <c r="E61" s="3">
+        <v>3</v>
+      </c>
+      <c r="F61" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" s="3"/>
+      <c r="J61" s="3"/>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2</v>
+      </c>
+      <c r="F62" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" s="3"/>
+      <c r="J62" s="3"/>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D63" s="3">
+        <v>1</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" s="3"/>
+      <c r="J63" s="3"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="3">
+        <v>0</v>
+      </c>
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+      <c r="F64" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" s="3"/>
+      <c r="J64" s="3"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="3">
+        <v>7</v>
+      </c>
+      <c r="E65" s="3">
+        <v>7</v>
+      </c>
+      <c r="F65" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H65" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" s="3"/>
+      <c r="J65" s="3"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D66" s="3">
+        <v>6</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6</v>
+      </c>
+      <c r="F66" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" s="3"/>
+      <c r="J66" s="3"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="3">
+        <v>5</v>
+      </c>
+      <c r="E67" s="3">
+        <v>5</v>
+      </c>
+      <c r="F67" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H67" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" s="3"/>
+      <c r="J67" s="3"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="3">
+        <v>4</v>
+      </c>
+      <c r="E68" s="3">
+        <v>4</v>
+      </c>
+      <c r="F68" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" s="3"/>
+      <c r="J68" s="3"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="3">
+        <v>3</v>
+      </c>
+      <c r="E69" s="3">
+        <v>3</v>
+      </c>
+      <c r="F69" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" s="3"/>
+      <c r="J69" s="3"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>2</v>
+      </c>
+      <c r="F70" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="13"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="3">
+        <v>0</v>
+      </c>
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+      <c r="F72" s="3">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="3">
+        <v>31</v>
+      </c>
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+      <c r="F73" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" s="3"/>
+      <c r="J73" s="3"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" s="3">
+        <v>31</v>
+      </c>
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+      <c r="F74" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H74" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I74" s="3"/>
+      <c r="J74" s="3"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" s="3">
+        <v>31</v>
+      </c>
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+      <c r="F75" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" s="3"/>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="3"/>
+      <c r="G76" s="3"/>
+      <c r="H76" s="3"/>
+      <c r="I76" s="3"/>
+      <c r="J76" s="3"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="3"/>
+      <c r="G77" s="3"/>
+      <c r="H77" s="3"/>
+      <c r="I77" s="3"/>
+      <c r="J77" s="3"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3"/>
+      <c r="F78" s="3"/>
+      <c r="G78" s="3"/>
+      <c r="H78" s="3"/>
+      <c r="I78" s="3"/>
+      <c r="J78" s="3"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
+      <c r="F79" s="3"/>
+      <c r="G79" s="3"/>
+      <c r="H79" s="3"/>
+      <c r="I79" s="3"/>
+      <c r="J79" s="3"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3"/>
+      <c r="F80" s="3"/>
+      <c r="G80" s="3"/>
+      <c r="H80" s="3"/>
+      <c r="I80" s="3"/>
+      <c r="J80" s="3"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3"/>
+      <c r="F81" s="3"/>
+      <c r="G81" s="3"/>
+      <c r="H81" s="3"/>
+      <c r="I81" s="3"/>
+      <c r="J81" s="3"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3"/>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3"/>
+      <c r="I82" s="3"/>
+      <c r="J82" s="3"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
+      <c r="H83" s="3"/>
+      <c r="I83" s="3"/>
+      <c r="J83" s="3"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="16">
+  <mergeCells count="22">
+    <mergeCell ref="B49:B56"/>
+    <mergeCell ref="B57:B64"/>
+    <mergeCell ref="B65:B72"/>
+    <mergeCell ref="A49:A56"/>
+    <mergeCell ref="A57:A64"/>
+    <mergeCell ref="A65:A72"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="B34:B37"/>
     <mergeCell ref="A34:A37"/>
     <mergeCell ref="B25:B28"/>
@@ -1846,34 +3069,39 @@
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A1:B1"/>
     <mergeCell ref="B15:B17"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="B18:B21"/>
     <mergeCell ref="A18:A21"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A9:I9"/>
-    <mergeCell ref="A1:B1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{B909BF7D-DF1C-4420-8565-9EE31A2C4BB7}">
+  <dataValidations count="8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"APB,AXI-Lite,AHB,LocalBus"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11" xr:uid="{AA7777CB-C515-4D4D-9CD8-36DE20765D0F}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>B7</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F21" xr:uid="{57566F15-B56E-4BB8-B118-98804F9D1605}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F21" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
       <formula2>B10</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F45" xr:uid="{50F1622B-C362-4063-A00A-58254ACFAB8E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42:G83" xr:uid="{00000000-0002-0000-0000-000004000000}">
+      <formula1>"RW,RO,RC,RS,W1S,W1C,W1T,W0C,W0S,HSRW,RWH,W1P,W0P,WP,RP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否采用寄存器输出" prompt="是否采用寄存器形式输出，如果选NO，则为组合逻辑输出，该项仅对W1C，W0C，W1S，W0S，W1P，W0P，W1T，W0T有效，对其他属性的寄存器无效" sqref="I11:I83" xr:uid="{37A8D7A2-08D5-4FAD-93C6-EB07A12E5247}">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="寄存器复位会的默认值" prompt="b:二进制，d:十进制，h:十六进制" sqref="H11:H75" xr:uid="{16D50366-8A16-41AF-BEBD-2362010AB1C1}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G41" xr:uid="{9999185E-EF94-45F5-8DC7-A142C68DE85E}">
+      <formula1>"RW,RO,RC,RS,WC,WS,W1S,W1C,W1T,W0C,W0S,HSRW,RWHS,W1P,W0P,WP,RP"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F83" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>B21</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G45" xr:uid="{A1EA1EFD-A4E6-4B31-A62F-C7EA6B64737F}">
-      <formula1>"RW,RO,RC,RS,W1S,W1C,W1T,W0C,W0S,HSRW,RWH,W1P,W0P"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/reg template.xlsx
+++ b/reg template.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C58BC4D6-4A29-4945-81F9-FF633152F609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC066B93-C24C-4783-9AC5-EFFD27E8D40C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="150">
   <si>
     <t>Offset(Hex)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>template</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>reg gen</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,10 +199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RW</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -219,10 +211,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>time_init0_value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -247,10 +235,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0x1c</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>W1P</t>
   </si>
   <si>
@@ -602,6 +586,27 @@
   <si>
     <t>0x6c</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Reset Polarity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>dcb_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sync</t>
+  </si>
+  <si>
+    <t>RP</t>
   </si>
 </sst>
 </file>
@@ -657,7 +662,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -769,11 +774,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -796,6 +825,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,13 +846,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1097,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J83"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1111,22 +1149,22 @@
     <col min="6" max="6" width="12.625" customWidth="1"/>
     <col min="7" max="7" width="13.375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="9" max="9" width="11.125" customWidth="1"/>
     <col min="10" max="10" width="43.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="11"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1134,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -1162,265 +1200,206 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="16">
         <v>32</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="17"/>
+    </row>
+    <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-    </row>
-    <row r="10" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I13" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="3">
+        <v>31</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f>D14-E14 + 1</f>
+        <v>32</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3">
+        <v>31</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f t="shared" ref="F15:F46" si="0">D15-E15 + 1</f>
+        <v>32</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3">
+      <c r="B16" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <f>D11-E11 + 1</f>
-        <v>32</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="C16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="3">
         <v>31</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="3">
-        <v>31</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <f t="shared" ref="F12:F43" si="0">D12-E12 + 1</f>
-        <v>32</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D13" s="3">
-        <v>31</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+      <c r="F16" s="3">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="3">
-        <v>1</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-      <c r="F16" s="3">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
       <c r="G16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
+      <c r="A17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="C17" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D17" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F17" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>42</v>
+      <c r="A18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D18" s="3">
         <v>0</v>
@@ -1433,19 +1412,21 @@
         <v>1</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="I18" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="9"/>
       <c r="C19" s="3" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
@@ -1458,19 +1439,19 @@
         <v>1</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D20" s="3">
         <v>7</v>
@@ -1483,140 +1464,138 @@
         <v>6</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
+      <c r="A21" s="8"/>
+      <c r="B21" s="8" t="s">
+        <v>40</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D21" s="3">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E21" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F21" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="I21" s="3"/>
+        <v>82</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
       <c r="C22" s="3" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="D22" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="9"/>
       <c r="C23" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D23" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E23" s="3">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F23" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
       <c r="C24" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D24" s="3">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="E24" s="3">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F24" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>56</v>
+      <c r="A25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>52</v>
+        <v>83</v>
       </c>
       <c r="D25" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E25" s="3">
         <v>0</v>
       </c>
       <c r="F25" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="H25" s="3" t="s">
         <v>84</v>
@@ -1625,20 +1604,20 @@
       <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="9"/>
+      <c r="B26" s="9"/>
       <c r="C26" s="3" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D26" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E26" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>17</v>
@@ -1650,388 +1629,380 @@
       <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
       <c r="C27" s="3" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D27" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E27" s="3">
         <v>16</v>
       </c>
       <c r="F27" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="14"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="8"/>
+      <c r="B28" s="8" t="s">
+        <v>53</v>
+      </c>
       <c r="C28" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D28" s="3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E28" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F28" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>59</v>
-      </c>
+      <c r="A29" s="9"/>
+      <c r="B29" s="9"/>
       <c r="C29" s="3" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E29" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F29" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>58</v>
+        <v>17</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="14"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
       <c r="C30" s="3" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
       <c r="D30" s="3">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E30" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F30" s="3">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="3"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>66</v>
-      </c>
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
       <c r="C31" s="3" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="D31" s="3">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E31" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F31" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>55</v>
+      </c>
       <c r="C32" s="3" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D32" s="3">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I32" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J32" s="3"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
       <c r="C33" s="3" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D33" s="3">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E33" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>72</v>
+      <c r="A34" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D34" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E34" s="3">
         <v>0</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="3"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="9"/>
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D35" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E35" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
       <c r="C36" s="3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D36" s="3">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E36" s="3">
         <v>16</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="14"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>68</v>
+      </c>
       <c r="C37" s="3" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="D37" s="3">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="E37" s="3">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F37" s="3">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
       <c r="C38" s="3" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D38" s="3">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="E38" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F38" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>76</v>
-      </c>
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
       <c r="C39" s="3" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="D39" s="3">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E39" s="3">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F39" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>78</v>
-      </c>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
       <c r="C40" s="3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D40" s="3">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E40" s="3">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="F40" s="3">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H40" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D41" s="3">
         <v>31</v>
@@ -2047,20 +2018,20 @@
         <v>17</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>135</v>
+        <v>73</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="D42" s="3">
         <v>31</v>
@@ -2076,20 +2047,20 @@
         <v>17</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="3"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>136</v>
+        <v>75</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="D43" s="3">
         <v>31</v>
@@ -2105,20 +2076,20 @@
         <v>17</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="3"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="D44" s="3">
         <v>31</v>
@@ -2127,27 +2098,27 @@
         <v>0</v>
       </c>
       <c r="F44" s="3">
-        <f t="shared" ref="F44" si="1">D44-E44 + 1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D45" s="3">
         <v>31</v>
@@ -2156,195 +2127,207 @@
         <v>0</v>
       </c>
       <c r="F45" s="3">
-        <f t="shared" ref="F45:F75" si="2">D45-E45 + 1</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="3"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D46" s="3">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="E46" s="3">
         <v>0</v>
       </c>
       <c r="F46" s="3">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="3">
+        <v>31</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <f t="shared" ref="F47" si="1">D47-E47 + 1</f>
+        <v>32</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="3">
+        <v>31</v>
+      </c>
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" ref="F48:F78" si="2">D48-E48 + 1</f>
+        <v>32</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="3">
+        <v>1</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
+      <c r="G49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D50" s="3">
+        <v>0</v>
+      </c>
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+      <c r="F50" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="3">
+      <c r="G50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D51" s="3">
         <v>31</v>
       </c>
-      <c r="E48" s="3">
-        <v>0</v>
-      </c>
-      <c r="F48" s="3">
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+      <c r="F51" s="3">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="3">
-        <v>7</v>
-      </c>
-      <c r="E49" s="3">
-        <v>7</v>
-      </c>
-      <c r="F49" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
-      <c r="C50" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D50" s="3">
-        <v>6</v>
-      </c>
-      <c r="E50" s="3">
-        <v>6</v>
-      </c>
-      <c r="F50" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
-      <c r="C51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D51" s="3">
-        <v>5</v>
-      </c>
-      <c r="E51" s="3">
-        <v>5</v>
-      </c>
-      <c r="F51" s="3">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
       <c r="G51" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>101</v>
+      </c>
       <c r="C52" s="3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="D52" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E52" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F52" s="3">
         <f t="shared" si="2"/>
@@ -2354,22 +2337,22 @@
         <v>17</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="3"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="9"/>
+      <c r="B53" s="9"/>
       <c r="C53" s="3" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D53" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E53" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F53" s="3">
         <f t="shared" si="2"/>
@@ -2379,22 +2362,22 @@
         <v>17</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="3"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" s="13"/>
-      <c r="B54" s="13"/>
+      <c r="A54" s="9"/>
+      <c r="B54" s="9"/>
       <c r="C54" s="3" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D54" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F54" s="3">
         <f t="shared" si="2"/>
@@ -2404,22 +2387,22 @@
         <v>17</v>
       </c>
       <c r="H54" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="3"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" s="13"/>
-      <c r="B55" s="13"/>
+      <c r="A55" s="9"/>
+      <c r="B55" s="9"/>
       <c r="C55" s="3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D55" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E55" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" s="3">
         <f t="shared" si="2"/>
@@ -2429,22 +2412,22 @@
         <v>17</v>
       </c>
       <c r="H55" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
       <c r="C56" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D56" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E56" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F56" s="3">
         <f t="shared" si="2"/>
@@ -2454,26 +2437,22 @@
         <v>17</v>
       </c>
       <c r="H56" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>122</v>
-      </c>
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
       <c r="C57" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D57" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E57" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F57" s="3">
         <f t="shared" si="2"/>
@@ -2483,22 +2462,22 @@
         <v>17</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="3"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="9"/>
+      <c r="B58" s="9"/>
       <c r="C58" s="3" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D58" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E58" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F58" s="3">
         <f t="shared" si="2"/>
@@ -2508,22 +2487,22 @@
         <v>17</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="3"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
       <c r="C59" s="3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="D59" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E59" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F59" s="3">
         <f t="shared" si="2"/>
@@ -2533,22 +2512,26 @@
         <v>17</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="3"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B60" s="8" t="s">
+        <v>118</v>
+      </c>
       <c r="C60" s="3" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D60" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E60" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F60" s="3">
         <f t="shared" si="2"/>
@@ -2558,22 +2541,22 @@
         <v>17</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="3"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="13"/>
-      <c r="B61" s="13"/>
+      <c r="A61" s="9"/>
+      <c r="B61" s="9"/>
       <c r="C61" s="3" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="D61" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E61" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F61" s="3">
         <f t="shared" si="2"/>
@@ -2583,22 +2566,22 @@
         <v>17</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="3"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="13"/>
-      <c r="B62" s="13"/>
+      <c r="A62" s="9"/>
+      <c r="B62" s="9"/>
       <c r="C62" s="3" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="D62" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E62" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F62" s="3">
         <f t="shared" si="2"/>
@@ -2608,22 +2591,22 @@
         <v>17</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="3"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="13"/>
-      <c r="B63" s="13"/>
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
       <c r="C63" s="3" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="D63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E63" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F63" s="3">
         <f t="shared" si="2"/>
@@ -2633,22 +2616,22 @@
         <v>17</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="14"/>
-      <c r="B64" s="14"/>
+      <c r="A64" s="9"/>
+      <c r="B64" s="9"/>
       <c r="C64" s="3" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D64" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E64" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F64" s="3">
         <f t="shared" si="2"/>
@@ -2658,335 +2641,392 @@
         <v>17</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="3"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>131</v>
-      </c>
+      <c r="A65" s="9"/>
+      <c r="B65" s="9"/>
       <c r="C65" s="3" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D65" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E65" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F65" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="13"/>
-      <c r="B66" s="13"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="9"/>
       <c r="C66" s="3" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D66" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E66" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F66" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
       <c r="C67" s="3" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D67" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E67" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F67" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>127</v>
+      </c>
       <c r="C68" s="3" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D68" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E68" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="F68" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G68" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I68" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H68" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I68" s="3"/>
       <c r="J68" s="3"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="9"/>
+      <c r="B69" s="9"/>
       <c r="C69" s="3" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D69" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E69" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F69" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G69" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I69" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H69" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I69" s="3"/>
       <c r="J69" s="3"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="13"/>
-      <c r="B70" s="13"/>
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
       <c r="C70" s="3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D70" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E70" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F70" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G70" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H70" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I70" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I70" s="3"/>
       <c r="J70" s="3"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
       <c r="C71" s="3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D71" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E71" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F71" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G71" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H71" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H71" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I71" s="3"/>
       <c r="J71" s="3"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" s="14"/>
-      <c r="B72" s="14"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
       <c r="C72" s="3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F72" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G72" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I72" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I72" s="3"/>
       <c r="J72" s="3"/>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>132</v>
-      </c>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="3" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D73" s="3">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="E73" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F73" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I73" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="I73" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J73" s="3"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>133</v>
-      </c>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
       <c r="C74" s="3" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="D74" s="3">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="E74" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F74" s="3">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I74" s="3"/>
+        <v>86</v>
+      </c>
+      <c r="I74" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J74" s="3"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>134</v>
-      </c>
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
       <c r="C75" s="3" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D75" s="3">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="E75" s="3">
         <v>0</v>
       </c>
       <c r="F75" s="3">
         <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H75" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I75" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" s="3"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D76" s="3">
+        <v>31</v>
+      </c>
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+      <c r="F76" s="3">
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H75" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
+      <c r="G76" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I76" s="3"/>
       <c r="J76" s="3"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
+      <c r="A77" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="3">
+        <v>31</v>
+      </c>
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+      <c r="F77" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="H77" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="I77" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="J77" s="3"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
+      <c r="A78" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="3">
+        <v>31</v>
+      </c>
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+      <c r="F78" s="3">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="3" t="s">
+        <v>86</v>
+      </c>
       <c r="I78" s="3"/>
       <c r="J78" s="3"/>
     </row>
@@ -3050,58 +3090,103 @@
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
     </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="J84" s="3"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+      <c r="F85" s="3"/>
+      <c r="G85" s="3"/>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3"/>
+      <c r="F86" s="3"/>
+      <c r="G86" s="3"/>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
+    </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <dataConsolidate/>
   <mergeCells count="22">
-    <mergeCell ref="B49:B56"/>
-    <mergeCell ref="B57:B64"/>
-    <mergeCell ref="B65:B72"/>
-    <mergeCell ref="A49:A56"/>
-    <mergeCell ref="A57:A64"/>
-    <mergeCell ref="A65:A72"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B34:B37"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="B25:B28"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="A9:J9"/>
+    <mergeCell ref="A12:J12"/>
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B18:B21"/>
-    <mergeCell ref="A18:A21"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A21:A24"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B28:B31"/>
+    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="A34:A36"/>
+    <mergeCell ref="B52:B59"/>
+    <mergeCell ref="B60:B67"/>
+    <mergeCell ref="B68:B75"/>
+    <mergeCell ref="A52:A59"/>
+    <mergeCell ref="A60:A67"/>
+    <mergeCell ref="A68:A75"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="8">
+  <dataValidations count="11">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B6" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"APB,AXI-Lite,AHB,LocalBus"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>B7</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F12:F21" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F15:F24" xr:uid="{00000000-0002-0000-0000-000002000000}">
       <formula1>0</formula1>
-      <formula2>B10</formula2>
+      <formula2>B13</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G42:G83" xr:uid="{00000000-0002-0000-0000-000004000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G45:G86" xr:uid="{00000000-0002-0000-0000-000004000000}">
       <formula1>"RW,RO,RC,RS,W1S,W1C,W1T,W0C,W0S,HSRW,RWH,W1P,W0P,WP,RP"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否采用寄存器输出" prompt="是否采用寄存器形式输出，如果选NO，则为组合逻辑输出，该项仅对W1C，W0C，W1S，W0S，W1P，W0P，W1T，W0T有效，对其他属性的寄存器无效" sqref="I11:I83" xr:uid="{37A8D7A2-08D5-4FAD-93C6-EB07A12E5247}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="是否采用寄存器输出" prompt="是否采用寄存器形式输出，如果选NO，则为组合逻辑输出，该项仅对W1C，W0C，W1S，W0S，W1P，W0P，W1T，W0T,WP,RP,WC,RC,WS,RS有效，对其他属性的寄存器无效" sqref="I14:I86" xr:uid="{37A8D7A2-08D5-4FAD-93C6-EB07A12E5247}">
       <formula1>"YES,NO"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="寄存器复位会的默认值" prompt="b:二进制，d:十进制，h:十六进制" sqref="H11:H75" xr:uid="{16D50366-8A16-41AF-BEBD-2362010AB1C1}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G41" xr:uid="{9999185E-EF94-45F5-8DC7-A142C68DE85E}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="寄存器复位会的默认值" prompt="b:二进制，d:十进制，h:十六进制" sqref="H14:H78" xr:uid="{16D50366-8A16-41AF-BEBD-2362010AB1C1}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G14:G44" xr:uid="{9999185E-EF94-45F5-8DC7-A142C68DE85E}">
       <formula1>"RW,RO,RC,RS,WC,WS,W1S,W1C,W1T,W0C,W0S,HSRW,RWHS,W1P,W0P,WP,RP"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F22:F83" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F25:F86" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
-      <formula2>B21</formula2>
+      <formula2>B24</formula2>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="复位极性" prompt="High：高电平复位_x000a_Low：低电平复位" sqref="B8" xr:uid="{0968AD42-8C64-4A0E-B09F-A0362F4E7EBC}">
+      <formula1>"High,Low"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="数据线位宽" sqref="B7" xr:uid="{A06DB251-07A0-4A6C-BFB2-C3143508AED2}">
+      <formula1>"8,16,32,64,128"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="总线时钟与功能时钟关系" prompt="Sync：同步时钟_x000a_Async：异步时钟" sqref="B9" xr:uid="{9FAECE11-5260-4048-A381-0A2F873F4A79}">
+      <formula1>"Sync,Async"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
